--- a/작업완료포트폴리오/8. 테이블기술서/테이블기술서_V1.1.xlsx
+++ b/작업완료포트폴리오/8. 테이블기술서/테이블기술서_V1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSMO-23\Documents\GitHub\-6th-_cosmo_1th_group\작업완료포트폴리오\8. 테이블기술서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSMO-27\Documents\GitHub\-6th-_cosmo_1th_group\작업완료포트폴리오\8. 테이블기술서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC608AA5-EB4E-4F8C-A678-E8629F35393F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B90C572-4C05-4B40-A4B5-69BD6BEDF5C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 이력 및 요약" sheetId="1" r:id="rId1"/>
@@ -1765,56 +1765,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1843,12 +1793,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1869,6 +1813,62 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2097,19 +2097,19 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -2127,17 +2127,17 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -2183,19 +2183,19 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2213,17 +2213,17 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2247,16 +2247,16 @@
       <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="56"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
       <c r="K6" s="17" t="s">
         <v>5</v>
       </c>
@@ -2283,16 +2283,16 @@
       <c r="B7" s="19">
         <v>43737</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="56"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="17" t="s">
         <v>6</v>
       </c>
@@ -2313,23 +2313,23 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="39">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="40">
         <v>43801</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="71" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="41" t="s">
         <v>76</v>
       </c>
       <c r="L8" s="4"/>
@@ -2351,14 +2351,14 @@
     <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="56"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
       <c r="K9" s="26"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -2379,14 +2379,14 @@
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="56"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
       <c r="K10" s="26"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -2407,14 +2407,14 @@
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="56"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
       <c r="K11" s="17"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -2435,14 +2435,14 @@
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="56"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
       <c r="K12" s="17"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -2463,14 +2463,14 @@
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="56"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
       <c r="K13" s="17"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -2491,14 +2491,14 @@
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
       <c r="K14" s="29"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -2993,17 +2993,17 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -3021,17 +3021,17 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -3050,15 +3050,15 @@
     </row>
     <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
       <c r="K34" s="37"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -3078,15 +3078,15 @@
     </row>
     <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
       <c r="K35" s="37"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -3106,15 +3106,15 @@
     </row>
     <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
       <c r="K36" s="37"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -3134,15 +3134,15 @@
     </row>
     <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
       <c r="K37" s="37"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -3162,15 +3162,15 @@
     </row>
     <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
       <c r="K38" s="37"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -3190,15 +3190,15 @@
     </row>
     <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
       <c r="K39" s="37"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -3218,15 +3218,15 @@
     </row>
     <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
       <c r="K40" s="38"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -3246,15 +3246,15 @@
     </row>
     <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
       <c r="K41" s="37"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -3274,15 +3274,15 @@
     </row>
     <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
       <c r="K42" s="38"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -3302,15 +3302,15 @@
     </row>
     <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
       <c r="K43" s="37"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -3330,15 +3330,15 @@
     </row>
     <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="37"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
       <c r="K44" s="37"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -3358,15 +3358,15 @@
     </row>
     <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="37"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
       <c r="K45" s="37"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -3386,15 +3386,15 @@
     </row>
     <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="37"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
       <c r="K46" s="37"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -3414,15 +3414,15 @@
     </row>
     <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="37"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
       <c r="K47" s="37"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -3442,15 +3442,15 @@
     </row>
     <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="37"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
       <c r="K48" s="37"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -3470,15 +3470,15 @@
     </row>
     <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
       <c r="K49" s="37"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -3498,15 +3498,15 @@
     </row>
     <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="37"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
       <c r="K50" s="37"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -30518,36 +30518,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="A32:K33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D42:J42"/>
@@ -30564,6 +30534,36 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="A32:K33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30578,7 +30578,7 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -30594,26 +30594,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="56"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -30631,15 +30631,15 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -30677,7 +30677,7 @@
       <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="42" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="8">
@@ -30697,22 +30697,22 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="42" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="8">
         <v>20</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="42" t="s">
         <v>81</v>
       </c>
       <c r="H6" s="8"/>
@@ -30739,7 +30739,7 @@
       <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="44" t="s">
         <v>82</v>
       </c>
     </row>
@@ -30762,7 +30762,7 @@
       <c r="F8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H8" s="10"/>
@@ -30858,7 +30858,7 @@
       <c r="F12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="45" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="10"/>
@@ -30907,7 +30907,7 @@
       <c r="G14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="44" t="s">
         <v>82</v>
       </c>
     </row>
@@ -30995,7 +30995,7 @@
       <c r="G21" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="77"/>
+      <c r="C23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31031,26 +31031,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="56"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -31068,15 +31068,15 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -31108,25 +31108,25 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="42" t="s">
         <v>111</v>
       </c>
       <c r="E5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="43" t="s">
         <v>82</v>
       </c>
     </row>
@@ -31134,20 +31134,20 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="42" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="42" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="8"/>
@@ -31156,44 +31156,44 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="45" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="74"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="45" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="10">
         <v>100</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="45" t="s">
         <v>81</v>
       </c>
       <c r="H8" s="10"/>
@@ -31202,22 +31202,22 @@
       <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="45" t="s">
         <v>113</v>
       </c>
       <c r="E9" s="10">
         <v>500</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H9" s="10"/>
@@ -31226,109 +31226,109 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="45" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="10">
         <v>20</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="44" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="81">
+      <c r="A11" s="49">
         <v>7</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="48" t="s">
         <v>113</v>
       </c>
       <c r="E11" s="36">
         <v>10</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="G11" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="54" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="84">
+      <c r="A12" s="52">
         <v>8</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="52">
         <v>8</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="87" t="s">
+      <c r="H12" s="55" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
@@ -31390,7 +31390,7 @@
       <c r="G21" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="77"/>
+      <c r="C23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31410,8 +31410,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31426,26 +31426,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="56"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -31463,15 +31463,15 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -31539,7 +31539,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>21</v>
@@ -31563,7 +31563,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="9">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>21</v>
@@ -31577,22 +31577,22 @@
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="45" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="10">
         <v>10</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="45" t="s">
         <v>81</v>
       </c>
       <c r="H8" s="10"/>
@@ -31623,20 +31623,20 @@
       <c r="A10" s="10">
         <v>6</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="45" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H10" s="10"/>
@@ -31645,20 +31645,20 @@
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="45" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H11" s="10"/>
@@ -31751,7 +31751,7 @@
       <c r="C15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="45" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="9">
@@ -31769,7 +31769,7 @@
       <c r="A16" s="10">
         <v>12</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="45" t="s">
         <v>91</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -31793,7 +31793,7 @@
       <c r="A17" s="8">
         <v>13</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="48" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -31918,6 +31918,7 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31944,26 +31945,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="56"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -31981,15 +31982,15 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -32123,7 +32124,7 @@
       <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="45" t="s">
         <v>113</v>
       </c>
       <c r="E9" s="9">
@@ -32240,48 +32241,48 @@
       <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84">
+      <c r="A14" s="52">
         <v>10</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="52">
         <v>3</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="84" t="s">
+      <c r="G14" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="84"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -32347,26 +32348,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="56"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -32384,15 +32385,15 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -32424,25 +32425,25 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="42" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="8">
         <v>20</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="43" t="s">
         <v>114</v>
       </c>
     </row>
@@ -32450,25 +32451,25 @@
       <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="45" t="s">
         <v>113</v>
       </c>
       <c r="E6" s="10">
         <v>8</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="44" t="s">
         <v>114</v>
       </c>
     </row>
@@ -32476,25 +32477,25 @@
       <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="45" t="s">
         <v>113</v>
       </c>
       <c r="E7" s="10">
         <v>10</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="44" t="s">
         <v>114</v>
       </c>
     </row>
@@ -32502,25 +32503,25 @@
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E8" s="10">
         <v>3</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="44" t="s">
         <v>114</v>
       </c>
     </row>
@@ -32528,25 +32529,25 @@
       <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="10">
         <v>3</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="44" t="s">
         <v>82</v>
       </c>
     </row>
@@ -32554,97 +32555,97 @@
       <c r="A10" s="36">
         <v>6</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="48" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="36">
         <v>500</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="48" t="s">
         <v>90</v>
       </c>
       <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84">
+      <c r="A11" s="52">
         <v>7</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85" t="s">
+      <c r="E11" s="52"/>
+      <c r="F11" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="84"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/작업완료포트폴리오/8. 테이블기술서/테이블기술서_V1.1.xlsx
+++ b/작업완료포트폴리오/8. 테이블기술서/테이블기술서_V1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSMO-27\Documents\GitHub\-6th-_cosmo_1th_group\작업완료포트폴리오\8. 테이블기술서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSMO-23\Documents\GitHub\-6th-_cosmo_1th_group\작업완료포트폴리오\8. 테이블기술서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B90C572-4C05-4B40-A4B5-69BD6BEDF5C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E163763-8FF1-429D-BE32-94A57FB70E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 이력 및 요약" sheetId="1" r:id="rId1"/>
@@ -1816,15 +1816,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1840,17 +1836,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2097,19 +2097,19 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -2127,17 +2127,17 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -2183,7 +2183,7 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="67" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="57"/>
@@ -2195,7 +2195,7 @@
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="57"/>
-      <c r="K4" s="72"/>
+      <c r="K4" s="68"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2213,17 +2213,17 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="74"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2247,16 +2247,16 @@
       <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="17" t="s">
         <v>5</v>
       </c>
@@ -2283,16 +2283,16 @@
       <c r="B7" s="19">
         <v>43737</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="17" t="s">
         <v>6</v>
       </c>
@@ -2319,16 +2319,16 @@
       <c r="B8" s="40">
         <v>43801</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="73"/>
       <c r="K8" s="41" t="s">
         <v>76</v>
       </c>
@@ -2351,14 +2351,14 @@
     <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="26"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -2379,14 +2379,14 @@
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="26"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -2407,14 +2407,14 @@
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="73"/>
       <c r="K11" s="17"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -2435,14 +2435,14 @@
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="73"/>
       <c r="K12" s="17"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -2463,14 +2463,14 @@
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="17"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -2993,7 +2993,7 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="57"/>
       <c r="C32" s="57"/>
       <c r="D32" s="57"/>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
-      <c r="B37" s="58"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="57"/>
       <c r="D37" s="56"/>
       <c r="E37" s="57"/>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
-      <c r="B40" s="58"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="57"/>
       <c r="D40" s="59"/>
       <c r="E40" s="57"/>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
-      <c r="B41" s="58"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="57"/>
       <c r="D41" s="56"/>
       <c r="E41" s="57"/>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
-      <c r="B42" s="58"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="57"/>
       <c r="D42" s="59"/>
       <c r="E42" s="57"/>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="37"/>
-      <c r="B50" s="78"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="57"/>
       <c r="D50" s="56"/>
       <c r="E50" s="57"/>
@@ -30518,6 +30518,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="A32:K33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D42:J42"/>
@@ -30534,36 +30564,6 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="A32:K33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30612,8 +30612,8 @@
       <c r="B2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -31049,8 +31049,8 @@
       <c r="B2" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -31410,8 +31410,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31444,8 +31444,8 @@
       <c r="B2" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -31963,8 +31963,8 @@
       <c r="B2" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -32332,8 +32332,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32366,8 +32366,8 @@
       <c r="B2" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>

--- a/작업완료포트폴리오/8. 테이블기술서/테이블기술서_V1.1.xlsx
+++ b/작업완료포트폴리오/8. 테이블기술서/테이블기술서_V1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSMO-23\Documents\GitHub\-6th-_cosmo_1th_group\작업완료포트폴리오\8. 테이블기술서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSMO-27\Documents\GitHub\-6th-_cosmo_1th_group\작업완료포트폴리오\8. 테이블기술서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E163763-8FF1-429D-BE32-94A57FB70E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C221736-CF93-4BDB-AC41-C23E1B6DF033}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="285" windowWidth="17040" windowHeight="15135" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 이력 및 요약" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="131">
   <si>
     <t>테이블기술서</t>
   </si>
@@ -1178,6 +1178,14 @@
     <t>APPROVAL</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>기본값</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1187,7 +1195,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1198,64 +1206,68 @@
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1310,6 +1322,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1331,7 +1357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1665,11 +1691,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1756,9 +1918,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1771,26 +1930,23 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1799,28 +1955,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1836,21 +1996,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1864,11 +2020,55 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2097,19 +2297,19 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="65"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -2127,17 +2327,17 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -2183,19 +2383,19 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2213,17 +2413,17 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2247,16 +2447,16 @@
       <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="73"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
       <c r="K6" s="17" t="s">
         <v>5</v>
       </c>
@@ -2286,13 +2486,13 @@
       <c r="C7" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="73"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="17" t="s">
         <v>6</v>
       </c>
@@ -2313,23 +2513,23 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+      <c r="A8" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>43801</v>
       </c>
       <c r="C8" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="41" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="40" t="s">
         <v>76</v>
       </c>
       <c r="L8" s="4"/>
@@ -2351,14 +2551,14 @@
     <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="73"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="26"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -2379,14 +2579,14 @@
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="73"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
       <c r="K10" s="26"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -2407,14 +2607,14 @@
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="73"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="60"/>
       <c r="K11" s="17"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -2435,14 +2635,14 @@
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="73"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
       <c r="K12" s="17"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -2463,14 +2663,14 @@
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="73"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
       <c r="K13" s="17"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -2491,14 +2691,14 @@
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="29"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -2993,17 +3193,17 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -3021,17 +3221,17 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -3049,17 +3249,17 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="37"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -3077,17 +3277,17 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="37"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="36"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -3105,17 +3305,17 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="37"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="36"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3133,17 +3333,17 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="37"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="36"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3161,17 +3361,17 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="37"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="36"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3189,17 +3389,17 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="37"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="36"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3217,17 +3417,17 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="38"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="37"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3245,17 +3445,17 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="37"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="36"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3273,17 +3473,17 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="38"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="37"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3301,17 +3501,17 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="37"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="36"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -3329,17 +3529,17 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="37"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="36"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -3357,17 +3557,17 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="37"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="36"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -3385,17 +3585,17 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="37"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="36"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -3413,17 +3613,17 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="37"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="36"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -3441,17 +3641,17 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="37"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="36"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -3469,17 +3669,17 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="37"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="36"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -3497,17 +3697,17 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="37"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="36"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -30518,36 +30718,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="A32:K33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D42:J42"/>
@@ -30564,6 +30734,36 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="A32:K33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30594,26 +30794,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -30631,15 +30831,15 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -30677,7 +30877,7 @@
       <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="8">
@@ -30697,22 +30897,22 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="8">
         <v>20</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="41" t="s">
         <v>81</v>
       </c>
       <c r="H6" s="8"/>
@@ -30739,7 +30939,7 @@
       <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="43" t="s">
         <v>82</v>
       </c>
     </row>
@@ -30762,7 +30962,7 @@
       <c r="F8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="44" t="s">
         <v>90</v>
       </c>
       <c r="H8" s="10"/>
@@ -30858,7 +31058,7 @@
       <c r="F12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="44" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="10"/>
@@ -30907,7 +31107,7 @@
       <c r="G14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="43" t="s">
         <v>82</v>
       </c>
     </row>
@@ -30995,7 +31195,7 @@
       <c r="G21" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="47"/>
+      <c r="C23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31031,26 +31231,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -31068,15 +31268,15 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -31108,25 +31308,25 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>111</v>
       </c>
       <c r="E5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="42" t="s">
         <v>82</v>
       </c>
     </row>
@@ -31134,20 +31334,20 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="41" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="8"/>
@@ -31156,44 +31356,44 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="43"/>
     </row>
     <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="10">
         <v>100</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="44" t="s">
         <v>81</v>
       </c>
       <c r="H8" s="10"/>
@@ -31202,22 +31402,22 @@
       <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>113</v>
       </c>
       <c r="E9" s="10">
         <v>500</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="44" t="s">
         <v>90</v>
       </c>
       <c r="H9" s="10"/>
@@ -31226,109 +31426,109 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="44" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="10">
         <v>20</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="43" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49">
+      <c r="A11" s="47">
         <v>7</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>10</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="52" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52">
+      <c r="A12" s="50">
         <v>8</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="50">
         <v>8</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="53" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
@@ -31390,7 +31590,7 @@
       <c r="G21" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="47"/>
+      <c r="C23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31408,10 +31608,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31425,463 +31625,487 @@
     <col min="7" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:9" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
+    </row>
+    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="91">
         <v>43801</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="89" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-    </row>
-    <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="96" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="I4" s="97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="47">
         <v>3</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="47" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="I5" s="98"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="50">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="50">
         <v>150</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="H6" s="50"/>
+      <c r="I6" s="99"/>
+    </row>
+    <row r="7" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="50">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="50">
         <v>3000</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="H7" s="50"/>
+      <c r="I7" s="99"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="50">
         <v>4</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="50">
         <v>10</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="H8" s="50"/>
+      <c r="I8" s="99"/>
+    </row>
+    <row r="9" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="50">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="50"/>
+      <c r="F9" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="H9" s="50"/>
+      <c r="I9" s="100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50">
         <v>6</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="45" t="s">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="H10" s="50"/>
+      <c r="I10" s="99"/>
+    </row>
+    <row r="11" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="50">
         <v>7</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="45" t="s">
+      <c r="E11" s="50"/>
+      <c r="F11" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="H11" s="50"/>
+      <c r="I11" s="99"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="50">
         <v>10</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="I12" s="99"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="50">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="50">
         <v>10</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="I13" s="99"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="50">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="50">
         <v>8</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="I14" s="99"/>
+    </row>
+    <row r="15" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="50">
         <v>20</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="H15" s="50"/>
+      <c r="I15" s="99"/>
+    </row>
+    <row r="16" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="50">
         <v>12</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="50">
         <v>20</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="H16" s="50"/>
+      <c r="I16" s="99"/>
+    </row>
+    <row r="17" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50">
         <v>13</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="50">
         <v>20</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="H17" s="50"/>
+      <c r="I17" s="99"/>
+    </row>
+    <row r="18" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="50">
         <v>1</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="H18" s="50"/>
+      <c r="I18" s="99"/>
+    </row>
+    <row r="19" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="50">
         <v>15</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="50"/>
+      <c r="F19" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="H19" s="50"/>
+      <c r="I19" s="99"/>
+    </row>
+    <row r="20" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="50">
         <v>16</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="50"/>
+      <c r="I20" s="99"/>
+    </row>
+    <row r="21" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -31891,7 +32115,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -31901,7 +32125,7 @@
       <c r="G22" s="20"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -31912,9 +32136,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31945,26 +32169,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -31982,15 +32206,15 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -32124,7 +32348,7 @@
       <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>113</v>
       </c>
       <c r="E9" s="9">
@@ -32217,72 +32441,72 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36">
+      <c r="A13" s="35">
         <v>9</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <v>3</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52">
+      <c r="A14" s="50">
         <v>10</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="50">
         <v>3</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="52"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -32332,7 +32556,7 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -32348,26 +32572,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -32385,15 +32609,15 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -32425,25 +32649,25 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="8">
         <v>20</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="42" t="s">
         <v>114</v>
       </c>
     </row>
@@ -32451,25 +32675,25 @@
       <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>113</v>
       </c>
       <c r="E6" s="10">
         <v>8</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>114</v>
       </c>
     </row>
@@ -32477,25 +32701,25 @@
       <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>113</v>
       </c>
       <c r="E7" s="10">
         <v>10</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="43" t="s">
         <v>114</v>
       </c>
     </row>
@@ -32503,25 +32727,25 @@
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>127</v>
       </c>
       <c r="E8" s="10">
         <v>3</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="43" t="s">
         <v>114</v>
       </c>
     </row>
@@ -32529,123 +32753,123 @@
       <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="10">
         <v>3</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="43" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36">
+      <c r="A10" s="35">
         <v>6</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>500</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="36"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52">
+      <c r="A11" s="50">
         <v>7</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53" t="s">
+      <c r="E11" s="50"/>
+      <c r="F11" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="52"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
